--- a/en/application_framework/application_framework/handlers/images/HttpAccessLogHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/HttpAccessLogHandler/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\HttpAccessLogHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F305E48C-A1C5-48B4-8633-92B21EB79B2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="1500" yWindow="1785" windowWidth="13200" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HttpAccessLogHandler" sheetId="4" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -79,26 +88,34 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="676275"/>
-          <a:ext cx="2800350" cy="3162300"/>
+          <a:off x="600075" y="676274"/>
+          <a:ext cx="2800350" cy="2876551"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10885"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -125,14 +142,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>HTTP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アクセスログハンドラ</a:t>
+            <a:t>Http access log handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -143,24 +153,30 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="1905000"/>
-          <a:ext cx="2000250" cy="342900"/>
+          <a:off x="1000125" y="1181100"/>
+          <a:ext cx="2000250" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -186,18 +202,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>処理開始時のアクセスログ出力</a:t>
+            <a:t>Access log output when processing is started</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -206,25 +217,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="2400300"/>
-          <a:ext cx="1600200" cy="685800"/>
+          <a:off x="3810000" y="1962149"/>
+          <a:ext cx="1962150" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -250,11 +267,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -266,26 +283,32 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="17" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3000375" y="2743200"/>
-          <a:ext cx="800100" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3000375" y="2233612"/>
+          <a:ext cx="809625" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -315,24 +338,30 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="2571750"/>
-          <a:ext cx="2000250" cy="342900"/>
+          <a:off x="1000125" y="2000250"/>
+          <a:ext cx="2000250" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -358,18 +387,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
+            <a:t>Call subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -379,18 +403,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="2"/>
           <a:endCxn id="15" idx="0"/>
@@ -398,8 +428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="2247900"/>
-          <a:ext cx="0" cy="323850"/>
+          <a:off x="2000250" y="1657350"/>
+          <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -430,23 +460,29 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="3257550"/>
-          <a:ext cx="2000250" cy="342900"/>
+          <a:off x="1000125" y="2847975"/>
+          <a:ext cx="2000250" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -472,7 +508,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -481,37 +517,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>処理</a:t>
+            <a:t>Access log output when processing is completed</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>完了</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>時のアクセスログ出力</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -522,17 +529,23 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -540,8 +553,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000250" y="2914650"/>
-          <a:ext cx="0" cy="342900"/>
+          <a:off x="2000250" y="2476500"/>
+          <a:ext cx="0" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -571,7 +584,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,7 +626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,9 +659,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,6 +711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -856,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
